--- a/DEVOPS.xlsx
+++ b/DEVOPS.xlsx
@@ -43,9 +43,6 @@
     <t xml:space="preserve">SCM(source code management)---&gt;  </t>
   </si>
   <si>
-    <t xml:space="preserve">  git,svn,</t>
-  </si>
-  <si>
     <t>CLOUD provider</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  git,svn,gitlab</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,31 +467,31 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -499,15 +499,15 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -523,15 +523,15 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
